--- a/Input/data/idea2.xlsx
+++ b/Input/data/idea2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/art/Documents/Github/lavori in corso/papers/EES_ptv_network/Input/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D784FF2E-7BFD-2749-9262-A4AFCA1FBEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7A385C-6FB3-934C-8085-BAD449C50BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23160" windowHeight="18560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="182">
   <si>
     <t>ISO3</t>
   </si>
@@ -563,6 +563,9 @@
   </si>
   <si>
     <t>77.83%</t>
+  </si>
+  <si>
+    <t>54.67%</t>
   </si>
 </sst>
 </file>
@@ -598,9 +601,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -897,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E148"/>
+  <dimension ref="A1:E149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C151" sqref="C151"/>
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F126" sqref="F126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1660,7 +1662,7 @@
       <c r="B45" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45">
         <v>2014</v>
       </c>
       <c r="D45" t="s">
@@ -1677,7 +1679,7 @@
       <c r="B46" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46">
         <v>2009</v>
       </c>
       <c r="D46" t="s">
@@ -1694,7 +1696,7 @@
       <c r="B47" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47">
         <v>2004</v>
       </c>
       <c r="D47" t="s">
@@ -1711,7 +1713,7 @@
       <c r="B48" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48">
         <v>1999</v>
       </c>
       <c r="D48" t="s">
@@ -1728,7 +1730,7 @@
       <c r="B49" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49">
         <v>2019</v>
       </c>
       <c r="D49" t="s">
@@ -1745,7 +1747,7 @@
       <c r="B50" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50">
         <v>1994</v>
       </c>
       <c r="D50" t="s">
@@ -1762,7 +1764,7 @@
       <c r="B51" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51">
         <v>1989</v>
       </c>
       <c r="D51" t="s">
@@ -3015,16 +3017,16 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B125" t="s">
         <v>6</v>
       </c>
       <c r="C125">
-        <v>2019</v>
+        <v>2004</v>
       </c>
       <c r="D125" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="E125" t="s">
         <v>8</v>
@@ -3038,10 +3040,10 @@
         <v>6</v>
       </c>
       <c r="C126">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="D126" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E126" t="s">
         <v>8</v>
@@ -3055,10 +3057,10 @@
         <v>6</v>
       </c>
       <c r="C127">
-        <v>2009</v>
+        <v>2014</v>
       </c>
       <c r="D127" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E127" t="s">
         <v>8</v>
@@ -3072,10 +3074,10 @@
         <v>6</v>
       </c>
       <c r="C128">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="D128" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="E128" t="s">
         <v>8</v>
@@ -3083,16 +3085,16 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B129" t="s">
         <v>6</v>
       </c>
       <c r="C129">
-        <v>2023</v>
+        <v>2004</v>
       </c>
       <c r="D129" t="s">
-        <v>159</v>
+        <v>27</v>
       </c>
       <c r="E129" t="s">
         <v>8</v>
@@ -3106,10 +3108,10 @@
         <v>6</v>
       </c>
       <c r="C130">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="D130" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E130" t="s">
         <v>8</v>
@@ -3123,10 +3125,10 @@
         <v>6</v>
       </c>
       <c r="C131">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="D131" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E131" t="s">
         <v>8</v>
@@ -3140,10 +3142,10 @@
         <v>6</v>
       </c>
       <c r="C132">
-        <v>2009</v>
+        <v>2014</v>
       </c>
       <c r="D132" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E132" t="s">
         <v>8</v>
@@ -3157,10 +3159,10 @@
         <v>6</v>
       </c>
       <c r="C133">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="D133" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E133" t="s">
         <v>8</v>
@@ -3174,10 +3176,10 @@
         <v>6</v>
       </c>
       <c r="C134">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="D134" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E134" t="s">
         <v>8</v>
@@ -3191,10 +3193,10 @@
         <v>6</v>
       </c>
       <c r="C135">
-        <v>1994</v>
+        <v>1999</v>
       </c>
       <c r="D135" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E135" t="s">
         <v>8</v>
@@ -3208,10 +3210,10 @@
         <v>6</v>
       </c>
       <c r="C136">
-        <v>1989</v>
+        <v>1994</v>
       </c>
       <c r="D136" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E136" t="s">
         <v>8</v>
@@ -3219,16 +3221,16 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B137" t="s">
         <v>6</v>
       </c>
       <c r="C137">
-        <v>2019</v>
+        <v>1989</v>
       </c>
       <c r="D137" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E137" t="s">
         <v>8</v>
@@ -3242,10 +3244,10 @@
         <v>6</v>
       </c>
       <c r="C138">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="D138" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E138" t="s">
         <v>8</v>
@@ -3259,10 +3261,10 @@
         <v>6</v>
       </c>
       <c r="C139">
-        <v>2009</v>
+        <v>2014</v>
       </c>
       <c r="D139" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E139" t="s">
         <v>8</v>
@@ -3276,10 +3278,10 @@
         <v>6</v>
       </c>
       <c r="C140">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="D140" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E140" t="s">
         <v>8</v>
@@ -3293,10 +3295,10 @@
         <v>6</v>
       </c>
       <c r="C141">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="D141" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E141" t="s">
         <v>8</v>
@@ -3304,16 +3306,16 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B142" t="s">
         <v>6</v>
       </c>
       <c r="C142">
-        <v>2019</v>
+        <v>1999</v>
       </c>
       <c r="D142" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E142" t="s">
         <v>8</v>
@@ -3327,10 +3329,10 @@
         <v>6</v>
       </c>
       <c r="C143">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="D143" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E143" t="s">
         <v>8</v>
@@ -3344,10 +3346,10 @@
         <v>6</v>
       </c>
       <c r="C144">
-        <v>2009</v>
+        <v>2014</v>
       </c>
       <c r="D144" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E144" t="s">
         <v>8</v>
@@ -3361,10 +3363,10 @@
         <v>6</v>
       </c>
       <c r="C145">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="D145" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E145" t="s">
         <v>8</v>
@@ -3378,10 +3380,10 @@
         <v>6</v>
       </c>
       <c r="C146">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="D146" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E146" t="s">
         <v>8</v>
@@ -3395,10 +3397,10 @@
         <v>6</v>
       </c>
       <c r="C147">
-        <v>1994</v>
+        <v>1999</v>
       </c>
       <c r="D147" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E147" t="s">
         <v>8</v>
@@ -3412,12 +3414,29 @@
         <v>6</v>
       </c>
       <c r="C148">
+        <v>1994</v>
+      </c>
+      <c r="D148" t="s">
+        <v>179</v>
+      </c>
+      <c r="E148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>173</v>
+      </c>
+      <c r="B149" t="s">
+        <v>6</v>
+      </c>
+      <c r="C149">
         <v>1989</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D149" t="s">
         <v>180</v>
       </c>
-      <c r="E148" t="s">
+      <c r="E149" t="s">
         <v>8</v>
       </c>
     </row>
